--- a/data/TOD.MI.xlsx
+++ b/data/TOD.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">63.662899017334</t>
+    <t xml:space="preserve">63.6628952026367</t>
   </si>
   <si>
     <t xml:space="preserve">TOD.MI</t>
@@ -47,16 +47,16 @@
     <t xml:space="preserve">63.6181945800781</t>
   </si>
   <si>
-    <t xml:space="preserve">62.5005149841309</t>
+    <t xml:space="preserve">62.5005187988281</t>
   </si>
   <si>
     <t xml:space="preserve">61.5616645812988</t>
   </si>
   <si>
-    <t xml:space="preserve">61.7404975891113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.8746109008789</t>
+    <t xml:space="preserve">61.7404937744141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.8746147155762</t>
   </si>
   <si>
     <t xml:space="preserve">63.9311447143555</t>
@@ -71,7 +71,7 @@
     <t xml:space="preserve">60.8463516235352</t>
   </si>
   <si>
-    <t xml:space="preserve">60.5333938598633</t>
+    <t xml:space="preserve">60.5333976745605</t>
   </si>
   <si>
     <t xml:space="preserve">61.0251808166504</t>
@@ -80,7 +80,7 @@
     <t xml:space="preserve">59.9075050354004</t>
   </si>
   <si>
-    <t xml:space="preserve">62.9028739929199</t>
+    <t xml:space="preserve">62.9028778076172</t>
   </si>
   <si>
     <t xml:space="preserve">65.2276458740234</t>
@@ -95,16 +95,16 @@
     <t xml:space="preserve">65.9429550170898</t>
   </si>
   <si>
-    <t xml:space="preserve">64.7358779907227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64.9146881103516</t>
+    <t xml:space="preserve">64.7358703613281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.9146957397461</t>
   </si>
   <si>
     <t xml:space="preserve">64.6464614868164</t>
   </si>
   <si>
-    <t xml:space="preserve">65.1382369995117</t>
+    <t xml:space="preserve">65.1382293701172</t>
   </si>
   <si>
     <t xml:space="preserve">64.9594039916992</t>
@@ -113,28 +113,28 @@
     <t xml:space="preserve">64.4229202270508</t>
   </si>
   <si>
-    <t xml:space="preserve">62.5452194213867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59.1474838256836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60.2204513549805</t>
+    <t xml:space="preserve">62.5452117919922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59.1474876403809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60.2204551696777</t>
   </si>
   <si>
     <t xml:space="preserve">58.566291809082</t>
   </si>
   <si>
-    <t xml:space="preserve">58.8792381286621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60.801643371582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.1711158752441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.3216819763184</t>
+    <t xml:space="preserve">58.8792419433594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60.8016395568848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.1711196899414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.3216857910156</t>
   </si>
   <si>
     <t xml:space="preserve">62.9922904968262</t>
@@ -143,40 +143,40 @@
     <t xml:space="preserve">63.7523193359375</t>
   </si>
   <si>
-    <t xml:space="preserve">62.2769813537598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60.7122344970703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.3828353881836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.9475860595703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.4558029174805</t>
+    <t xml:space="preserve">62.2769775390625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60.712230682373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.3828315734863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.947582244873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.4558067321777</t>
   </si>
   <si>
     <t xml:space="preserve">63.3499526977539</t>
   </si>
   <si>
-    <t xml:space="preserve">62.6793441772461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.0981483459473</t>
+    <t xml:space="preserve">62.6793403625488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.09814453125</t>
   </si>
   <si>
     <t xml:space="preserve">62.7687530517578</t>
   </si>
   <si>
-    <t xml:space="preserve">62.8581771850586</t>
+    <t xml:space="preserve">62.8581695556641</t>
   </si>
   <si>
     <t xml:space="preserve">64.1099624633789</t>
   </si>
   <si>
-    <t xml:space="preserve">64.512336730957</t>
+    <t xml:space="preserve">64.5123291015625</t>
   </si>
   <si>
     <t xml:space="preserve">65.5852966308594</t>
@@ -185,10 +185,10 @@
     <t xml:space="preserve">65.630012512207</t>
   </si>
   <si>
-    <t xml:space="preserve">60.8910598754883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60.6675224304199</t>
+    <t xml:space="preserve">60.8910636901855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60.6675186157227</t>
   </si>
   <si>
     <t xml:space="preserve">60.1757507324219</t>
@@ -200,7 +200,7 @@
     <t xml:space="preserve">59.1921882629395</t>
   </si>
   <si>
-    <t xml:space="preserve">58.1192207336426</t>
+    <t xml:space="preserve">58.1192169189453</t>
   </si>
   <si>
     <t xml:space="preserve">56.9568367004395</t>
@@ -215,55 +215,55 @@
     <t xml:space="preserve">55.9732780456543</t>
   </si>
   <si>
-    <t xml:space="preserve">55.1685485839844</t>
+    <t xml:space="preserve">55.1685562133789</t>
   </si>
   <si>
     <t xml:space="preserve">55.7050323486328</t>
   </si>
   <si>
-    <t xml:space="preserve">53.9614562988281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54.1849937438965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53.0673179626465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.7990760803223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54.6320648193359</t>
+    <t xml:space="preserve">53.9614601135254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54.1849975585938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53.0673141479492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.799072265625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54.6320610046387</t>
   </si>
   <si>
     <t xml:space="preserve">53.5590972900391</t>
   </si>
   <si>
-    <t xml:space="preserve">54.5426483154297</t>
+    <t xml:space="preserve">54.5426559448242</t>
   </si>
   <si>
     <t xml:space="preserve">56.2862281799316</t>
   </si>
   <si>
-    <t xml:space="preserve">57.2250747680664</t>
+    <t xml:space="preserve">57.2250785827637</t>
   </si>
   <si>
     <t xml:space="preserve">56.688591003418</t>
   </si>
   <si>
-    <t xml:space="preserve">56.7780075073242</t>
+    <t xml:space="preserve">56.778003692627</t>
   </si>
   <si>
     <t xml:space="preserve">54.9897232055664</t>
   </si>
   <si>
-    <t xml:space="preserve">54.6767730712891</t>
+    <t xml:space="preserve">54.6767768859863</t>
   </si>
   <si>
     <t xml:space="preserve">53.3802680969238</t>
   </si>
   <si>
-    <t xml:space="preserve">53.9167556762695</t>
+    <t xml:space="preserve">53.916748046875</t>
   </si>
   <si>
     <t xml:space="preserve">54.766185760498</t>
@@ -275,7 +275,7 @@
     <t xml:space="preserve">53.1120262145996</t>
   </si>
   <si>
-    <t xml:space="preserve">54.3638229370117</t>
+    <t xml:space="preserve">54.3638191223145</t>
   </si>
   <si>
     <t xml:space="preserve">49.9825286865234</t>
@@ -284,40 +284,40 @@
     <t xml:space="preserve">50.7425498962402</t>
   </si>
   <si>
-    <t xml:space="preserve">49.8037033081055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.2954750061035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.6248741149902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.1778030395508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.920108795166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.1984748840332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.1520767211914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.3840522766113</t>
+    <t xml:space="preserve">49.8036994934082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.2954788208008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.624870300293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.177806854248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.9201049804688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.1984710693359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.1520805358887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.3840484619141</t>
   </si>
   <si>
     <t xml:space="preserve">50.6160202026367</t>
   </si>
   <si>
-    <t xml:space="preserve">50.7552032470703</t>
+    <t xml:space="preserve">50.7552070617676</t>
   </si>
   <si>
     <t xml:space="preserve">50.1056861877441</t>
   </si>
   <si>
-    <t xml:space="preserve">50.0592956542969</t>
+    <t xml:space="preserve">50.0592918395996</t>
   </si>
   <si>
     <t xml:space="preserve">49.7345314025879</t>
@@ -332,10 +332,10 @@
     <t xml:space="preserve">48.389102935791</t>
   </si>
   <si>
-    <t xml:space="preserve">48.1107330322266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.3633766174316</t>
+    <t xml:space="preserve">48.1107368469238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.3633804321289</t>
   </si>
   <si>
     <t xml:space="preserve">47.7395820617676</t>
@@ -356,22 +356,22 @@
     <t xml:space="preserve">44.7332420349121</t>
   </si>
   <si>
-    <t xml:space="preserve">45.3734855651855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.002326965332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.7517967224121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.0786743164062</t>
+    <t xml:space="preserve">45.3734817504883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.0023307800293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.7518005371094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.078670501709</t>
   </si>
   <si>
     <t xml:space="preserve">45.5776176452637</t>
   </si>
   <si>
-    <t xml:space="preserve">44.2414627075195</t>
+    <t xml:space="preserve">44.2414665222168</t>
   </si>
   <si>
     <t xml:space="preserve">42.9238662719727</t>
@@ -383,7 +383,7 @@
     <t xml:space="preserve">43.749683380127</t>
   </si>
   <si>
-    <t xml:space="preserve">45.0858383178711</t>
+    <t xml:space="preserve">45.0858345031738</t>
   </si>
   <si>
     <t xml:space="preserve">44.8260307312012</t>
@@ -392,13 +392,13 @@
     <t xml:space="preserve">45.354923248291</t>
   </si>
   <si>
-    <t xml:space="preserve">45.1971817016602</t>
+    <t xml:space="preserve">45.1971855163574</t>
   </si>
   <si>
     <t xml:space="preserve">44.1486778259277</t>
   </si>
   <si>
-    <t xml:space="preserve">44.0187683105469</t>
+    <t xml:space="preserve">44.0187759399414</t>
   </si>
   <si>
     <t xml:space="preserve">43.6290626525879</t>
@@ -410,10 +410,10 @@
     <t xml:space="preserve">44.0651664733887</t>
   </si>
   <si>
-    <t xml:space="preserve">45.1786231994629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.4405479431152</t>
+    <t xml:space="preserve">45.1786270141602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.440544128418</t>
   </si>
   <si>
     <t xml:space="preserve">46.2085762023926</t>
@@ -422,7 +422,7 @@
     <t xml:space="preserve">48.7138633728027</t>
   </si>
   <si>
-    <t xml:space="preserve">49.0386161804199</t>
+    <t xml:space="preserve">49.0386199951172</t>
   </si>
   <si>
     <t xml:space="preserve">48.76025390625</t>
@@ -437,40 +437,40 @@
     <t xml:space="preserve">46.5797309875488</t>
   </si>
   <si>
-    <t xml:space="preserve">46.0229949951172</t>
+    <t xml:space="preserve">46.0229988098145</t>
   </si>
   <si>
     <t xml:space="preserve">48.8994369506836</t>
   </si>
   <si>
-    <t xml:space="preserve">49.3169860839844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.8530464172363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.6674690246582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.1314125061035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.1727523803711</t>
+    <t xml:space="preserve">49.3169822692871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.8530426025391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.6674652099609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.1314086914062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.1727485656738</t>
   </si>
   <si>
     <t xml:space="preserve">51.0335693359375</t>
   </si>
   <si>
-    <t xml:space="preserve">51.1263542175293</t>
+    <t xml:space="preserve">51.1263580322266</t>
   </si>
   <si>
     <t xml:space="preserve">50.4768409729004</t>
   </si>
   <si>
-    <t xml:space="preserve">50.662410736084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.8737106323242</t>
+    <t xml:space="preserve">50.6624145507812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.8737144470215</t>
   </si>
   <si>
     <t xml:space="preserve">49.4097747802734</t>
@@ -482,28 +482,28 @@
     <t xml:space="preserve">50.7088088989258</t>
   </si>
   <si>
-    <t xml:space="preserve">50.8479919433594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.3376541137695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.548957824707</t>
+    <t xml:space="preserve">50.8479881286621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.3376579284668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.5489540100098</t>
   </si>
   <si>
     <t xml:space="preserve">47.600399017334</t>
   </si>
   <si>
-    <t xml:space="preserve">44.7425231933594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.9352645874023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.3692588806152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.6012229919434</t>
+    <t xml:space="preserve">44.7425193786621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.9352607727051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.369255065918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.6012268066406</t>
   </si>
   <si>
     <t xml:space="preserve">44.4084815979004</t>
@@ -518,7 +518,7 @@
     <t xml:space="preserve">43.5641098022461</t>
   </si>
   <si>
-    <t xml:space="preserve">43.4434852600098</t>
+    <t xml:space="preserve">43.4434814453125</t>
   </si>
   <si>
     <t xml:space="preserve">43.016658782959</t>
@@ -527,10 +527,10 @@
     <t xml:space="preserve">44.2043495178223</t>
   </si>
   <si>
-    <t xml:space="preserve">44.4270439147949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.649730682373</t>
+    <t xml:space="preserve">44.4270401000977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.6497344970703</t>
   </si>
   <si>
     <t xml:space="preserve">44.3156929016113</t>
@@ -539,13 +539,13 @@
     <t xml:space="preserve">45.0951156616211</t>
   </si>
   <si>
-    <t xml:space="preserve">45.6611251831055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.556941986084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.252857208252</t>
+    <t xml:space="preserve">45.6611289978027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.5569458007812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.2528610229492</t>
   </si>
   <si>
     <t xml:space="preserve">47.229248046875</t>
@@ -560,22 +560,22 @@
     <t xml:space="preserve">46.9044876098633</t>
   </si>
   <si>
-    <t xml:space="preserve">47.925163269043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.1828498840332</t>
+    <t xml:space="preserve">47.9251594543457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.1828536987305</t>
   </si>
   <si>
     <t xml:space="preserve">47.1364593505859</t>
   </si>
   <si>
-    <t xml:space="preserve">49.2705917358398</t>
+    <t xml:space="preserve">49.2705879211426</t>
   </si>
   <si>
     <t xml:space="preserve">48.8066482543945</t>
   </si>
   <si>
-    <t xml:space="preserve">49.827320098877</t>
+    <t xml:space="preserve">49.8273239135742</t>
   </si>
   <si>
     <t xml:space="preserve">49.4561653137207</t>
@@ -587,13 +587,13 @@
     <t xml:space="preserve">46.6725158691406</t>
   </si>
   <si>
-    <t xml:space="preserve">45.9673271179199</t>
+    <t xml:space="preserve">45.9673309326172</t>
   </si>
   <si>
     <t xml:space="preserve">46.2642517089844</t>
   </si>
   <si>
-    <t xml:space="preserve">45.5126647949219</t>
+    <t xml:space="preserve">45.5126609802246</t>
   </si>
   <si>
     <t xml:space="preserve">47.0900650024414</t>
@@ -608,10 +608,10 @@
     <t xml:space="preserve">46.3013648986816</t>
   </si>
   <si>
-    <t xml:space="preserve">46.8580932617188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.3220329284668</t>
+    <t xml:space="preserve">46.858097076416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.3220367431641</t>
   </si>
   <si>
     <t xml:space="preserve">48.6210708618164</t>
@@ -620,16 +620,16 @@
     <t xml:space="preserve">49.224193572998</t>
   </si>
   <si>
-    <t xml:space="preserve">51.0799598693848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.4253921508789</t>
+    <t xml:space="preserve">51.079963684082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.4253959655762</t>
   </si>
   <si>
     <t xml:space="preserve">53.8172187805176</t>
   </si>
   <si>
-    <t xml:space="preserve">54.5595207214355</t>
+    <t xml:space="preserve">54.5595245361328</t>
   </si>
   <si>
     <t xml:space="preserve">54.9306793212891</t>
@@ -638,10 +638,10 @@
     <t xml:space="preserve">54.2347640991211</t>
   </si>
   <si>
-    <t xml:space="preserve">55.7193794250488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.5802001953125</t>
+    <t xml:space="preserve">55.7193756103516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.5801963806152</t>
   </si>
   <si>
     <t xml:space="preserve">55.8585624694824</t>
@@ -653,7 +653,7 @@
     <t xml:space="preserve">55.9977416992188</t>
   </si>
   <si>
-    <t xml:space="preserve">56.0905342102051</t>
+    <t xml:space="preserve">56.0905303955078</t>
   </si>
   <si>
     <t xml:space="preserve">56.2297134399414</t>
@@ -662,16 +662,16 @@
     <t xml:space="preserve">56.8792304992676</t>
   </si>
   <si>
-    <t xml:space="preserve">56.9720230102539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.3431739807129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58.0854759216309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.5287475585938</t>
+    <t xml:space="preserve">56.9720191955566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.3431701660156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58.0854797363281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.528751373291</t>
   </si>
   <si>
     <t xml:space="preserve">57.0648078918457</t>
@@ -686,13 +686,13 @@
     <t xml:space="preserve">56.4152870178223</t>
   </si>
   <si>
-    <t xml:space="preserve">60.4051895141602</t>
+    <t xml:space="preserve">60.4051856994629</t>
   </si>
   <si>
     <t xml:space="preserve">60.8691253662109</t>
   </si>
   <si>
-    <t xml:space="preserve">61.8434028625488</t>
+    <t xml:space="preserve">61.8434066772461</t>
   </si>
   <si>
     <t xml:space="preserve">61.7970123291016</t>
@@ -704,7 +704,7 @@
     <t xml:space="preserve">61.0083122253418</t>
   </si>
   <si>
-    <t xml:space="preserve">63.0032653808594</t>
+    <t xml:space="preserve">63.0032577514648</t>
   </si>
   <si>
     <t xml:space="preserve">62.6321067810059</t>
@@ -713,22 +713,22 @@
     <t xml:space="preserve">62.4001350402832</t>
   </si>
   <si>
-    <t xml:space="preserve">62.2145576477051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.1681671142578</t>
+    <t xml:space="preserve">62.2145614624023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.1681632995605</t>
   </si>
   <si>
     <t xml:space="preserve">61.9361953735352</t>
   </si>
   <si>
-    <t xml:space="preserve">61.9825897216797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.8176765441895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.075382232666</t>
+    <t xml:space="preserve">61.982593536377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.8176803588867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.0753784179688</t>
   </si>
   <si>
     <t xml:space="preserve">60.3587951660156</t>
@@ -737,46 +737,46 @@
     <t xml:space="preserve">60.4515838623047</t>
   </si>
   <si>
-    <t xml:space="preserve">60.1732139587402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60.9619140625</t>
+    <t xml:space="preserve">60.1732177734375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60.9619102478027</t>
   </si>
   <si>
     <t xml:space="preserve">61.4258575439453</t>
   </si>
   <si>
-    <t xml:space="preserve">61.5186500549316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.2402839660645</t>
+    <t xml:space="preserve">61.5186462402344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.2402801513672</t>
   </si>
   <si>
     <t xml:space="preserve">61.6114387512207</t>
   </si>
   <si>
-    <t xml:space="preserve">60.91552734375</t>
+    <t xml:space="preserve">60.9155235290527</t>
   </si>
   <si>
     <t xml:space="preserve">60.2660026550293</t>
   </si>
   <si>
-    <t xml:space="preserve">61.0547065734863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.8897972106934</t>
+    <t xml:space="preserve">61.0547103881836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.8897933959961</t>
   </si>
   <si>
     <t xml:space="preserve">62.121768951416</t>
   </si>
   <si>
-    <t xml:space="preserve">62.446533203125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.9568634033203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.188835144043</t>
+    <t xml:space="preserve">62.4465293884277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.956859588623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.1888389587402</t>
   </si>
   <si>
     <t xml:space="preserve">64.0239334106445</t>
@@ -791,16 +791,16 @@
     <t xml:space="preserve">65.8796997070312</t>
   </si>
   <si>
-    <t xml:space="preserve">66.297248840332</t>
+    <t xml:space="preserve">66.2972412109375</t>
   </si>
   <si>
     <t xml:space="preserve">66.0188827514648</t>
   </si>
   <si>
-    <t xml:space="preserve">66.9931488037109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68.1066207885742</t>
+    <t xml:space="preserve">66.9931564331055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68.1066131591797</t>
   </si>
   <si>
     <t xml:space="preserve">67.4107055664062</t>
@@ -809,13 +809,13 @@
     <t xml:space="preserve">66.8075790405273</t>
   </si>
   <si>
-    <t xml:space="preserve">67.5034866333008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.0395584106445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.4570999145508</t>
+    <t xml:space="preserve">67.5034942626953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.03955078125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.4570922851562</t>
   </si>
   <si>
     <t xml:space="preserve">68.0602188110352</t>
@@ -836,46 +836,46 @@
     <t xml:space="preserve">64.3950805664062</t>
   </si>
   <si>
-    <t xml:space="preserve">63.7919692993164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.1424407958984</t>
+    <t xml:space="preserve">63.7919578552246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.1424446105957</t>
   </si>
   <si>
     <t xml:space="preserve">63.3744163513184</t>
   </si>
   <si>
-    <t xml:space="preserve">62.3537330627441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.5393180847168</t>
+    <t xml:space="preserve">62.3537368774414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.5393142700195</t>
   </si>
   <si>
     <t xml:space="preserve">64.1167144775391</t>
   </si>
   <si>
-    <t xml:space="preserve">65.6013336181641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64.9982070922852</t>
+    <t xml:space="preserve">65.6013259887695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.9982147216797</t>
   </si>
   <si>
     <t xml:space="preserve">65.8332977294922</t>
   </si>
   <si>
-    <t xml:space="preserve">66.1116638183594</t>
+    <t xml:space="preserve">66.1116714477539</t>
   </si>
   <si>
     <t xml:space="preserve">66.4364242553711</t>
   </si>
   <si>
-    <t xml:space="preserve">59.1525459289551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58.6422119140625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.5751419067383</t>
+    <t xml:space="preserve">59.1525497436523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58.6422080993652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.5751457214355</t>
   </si>
   <si>
     <t xml:space="preserve">57.4823570251465</t>

--- a/data/TOD.MI.xlsx
+++ b/data/TOD.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">63.6628952026367</t>
+    <t xml:space="preserve">63.6628913879395</t>
   </si>
   <si>
     <t xml:space="preserve">TOD.MI</t>
@@ -47,40 +47,40 @@
     <t xml:space="preserve">63.6181945800781</t>
   </si>
   <si>
-    <t xml:space="preserve">62.5005187988281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.5616645812988</t>
+    <t xml:space="preserve">62.5005149841309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.5616607666016</t>
   </si>
   <si>
     <t xml:space="preserve">61.7404937744141</t>
   </si>
   <si>
-    <t xml:space="preserve">61.8746147155762</t>
+    <t xml:space="preserve">61.8746109008789</t>
   </si>
   <si>
     <t xml:space="preserve">63.9311447143555</t>
   </si>
   <si>
-    <t xml:space="preserve">62.4111061096191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.6510772705078</t>
+    <t xml:space="preserve">62.4111022949219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.6510810852051</t>
   </si>
   <si>
     <t xml:space="preserve">60.8463516235352</t>
   </si>
   <si>
-    <t xml:space="preserve">60.5333976745605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.0251808166504</t>
+    <t xml:space="preserve">60.5333938598633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.0251770019531</t>
   </si>
   <si>
     <t xml:space="preserve">59.9075050354004</t>
   </si>
   <si>
-    <t xml:space="preserve">62.9028778076172</t>
+    <t xml:space="preserve">62.9028739929199</t>
   </si>
   <si>
     <t xml:space="preserve">65.2276458740234</t>
@@ -95,7 +95,7 @@
     <t xml:space="preserve">65.9429550170898</t>
   </si>
   <si>
-    <t xml:space="preserve">64.7358703613281</t>
+    <t xml:space="preserve">64.7358779907227</t>
   </si>
   <si>
     <t xml:space="preserve">64.9146957397461</t>
@@ -104,13 +104,13 @@
     <t xml:space="preserve">64.6464614868164</t>
   </si>
   <si>
-    <t xml:space="preserve">65.1382293701172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64.9594039916992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64.4229202270508</t>
+    <t xml:space="preserve">65.1382369995117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.9593963623047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.4229278564453</t>
   </si>
   <si>
     <t xml:space="preserve">62.5452117919922</t>
@@ -125,16 +125,16 @@
     <t xml:space="preserve">58.566291809082</t>
   </si>
   <si>
-    <t xml:space="preserve">58.8792419433594</t>
+    <t xml:space="preserve">58.8792381286621</t>
   </si>
   <si>
     <t xml:space="preserve">60.8016395568848</t>
   </si>
   <si>
-    <t xml:space="preserve">63.1711196899414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.3216857910156</t>
+    <t xml:space="preserve">63.1711158752441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.3216819763184</t>
   </si>
   <si>
     <t xml:space="preserve">62.9922904968262</t>
@@ -152,22 +152,22 @@
     <t xml:space="preserve">61.3828315734863</t>
   </si>
   <si>
-    <t xml:space="preserve">62.947582244873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.4558067321777</t>
+    <t xml:space="preserve">62.9475860595703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.455810546875</t>
   </si>
   <si>
     <t xml:space="preserve">63.3499526977539</t>
   </si>
   <si>
-    <t xml:space="preserve">62.6793403625488</t>
+    <t xml:space="preserve">62.6793441772461</t>
   </si>
   <si>
     <t xml:space="preserve">62.09814453125</t>
   </si>
   <si>
-    <t xml:space="preserve">62.7687530517578</t>
+    <t xml:space="preserve">62.7687606811523</t>
   </si>
   <si>
     <t xml:space="preserve">62.8581695556641</t>
@@ -182,31 +182,31 @@
     <t xml:space="preserve">65.5852966308594</t>
   </si>
   <si>
-    <t xml:space="preserve">65.630012512207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60.8910636901855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60.6675186157227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60.1757507324219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59.6392593383789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59.1921882629395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58.1192169189453</t>
+    <t xml:space="preserve">65.6300201416016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60.8910598754883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60.6675224304199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60.1757469177246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59.6392631530762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59.1921844482422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58.1192207336426</t>
   </si>
   <si>
     <t xml:space="preserve">56.9568367004395</t>
   </si>
   <si>
-    <t xml:space="preserve">57.0909538269043</t>
+    <t xml:space="preserve">57.0909576416016</t>
   </si>
   <si>
     <t xml:space="preserve">57.8062705993652</t>
@@ -215,7 +215,7 @@
     <t xml:space="preserve">55.9732780456543</t>
   </si>
   <si>
-    <t xml:space="preserve">55.1685562133789</t>
+    <t xml:space="preserve">55.1685523986816</t>
   </si>
   <si>
     <t xml:space="preserve">55.7050323486328</t>
@@ -224,13 +224,13 @@
     <t xml:space="preserve">53.9614601135254</t>
   </si>
   <si>
-    <t xml:space="preserve">54.1849975585938</t>
+    <t xml:space="preserve">54.1849937438965</t>
   </si>
   <si>
     <t xml:space="preserve">53.0673141479492</t>
   </si>
   <si>
-    <t xml:space="preserve">52.799072265625</t>
+    <t xml:space="preserve">52.7990760803223</t>
   </si>
   <si>
     <t xml:space="preserve">54.6320610046387</t>
@@ -242,7 +242,7 @@
     <t xml:space="preserve">54.5426559448242</t>
   </si>
   <si>
-    <t xml:space="preserve">56.2862281799316</t>
+    <t xml:space="preserve">56.2862243652344</t>
   </si>
   <si>
     <t xml:space="preserve">57.2250785827637</t>
@@ -251,7 +251,7 @@
     <t xml:space="preserve">56.688591003418</t>
   </si>
   <si>
-    <t xml:space="preserve">56.778003692627</t>
+    <t xml:space="preserve">56.7780075073242</t>
   </si>
   <si>
     <t xml:space="preserve">54.9897232055664</t>
@@ -260,13 +260,13 @@
     <t xml:space="preserve">54.6767768859863</t>
   </si>
   <si>
-    <t xml:space="preserve">53.3802680969238</t>
+    <t xml:space="preserve">53.3802719116211</t>
   </si>
   <si>
     <t xml:space="preserve">53.916748046875</t>
   </si>
   <si>
-    <t xml:space="preserve">54.766185760498</t>
+    <t xml:space="preserve">54.7661819458008</t>
   </si>
   <si>
     <t xml:space="preserve">53.0226097106934</t>
@@ -275,7 +275,7 @@
     <t xml:space="preserve">53.1120262145996</t>
   </si>
   <si>
-    <t xml:space="preserve">54.3638191223145</t>
+    <t xml:space="preserve">54.3638229370117</t>
   </si>
   <si>
     <t xml:space="preserve">49.9825286865234</t>
@@ -284,16 +284,16 @@
     <t xml:space="preserve">50.7425498962402</t>
   </si>
   <si>
-    <t xml:space="preserve">49.8036994934082</t>
+    <t xml:space="preserve">49.8037033081055</t>
   </si>
   <si>
     <t xml:space="preserve">50.2954788208008</t>
   </si>
   <si>
-    <t xml:space="preserve">49.624870300293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.177806854248</t>
+    <t xml:space="preserve">49.6248741149902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.1778030395508</t>
   </si>
   <si>
     <t xml:space="preserve">49.9201049804688</t>
@@ -305,16 +305,16 @@
     <t xml:space="preserve">50.1520805358887</t>
   </si>
   <si>
-    <t xml:space="preserve">50.3840484619141</t>
+    <t xml:space="preserve">50.3840522766113</t>
   </si>
   <si>
     <t xml:space="preserve">50.6160202026367</t>
   </si>
   <si>
-    <t xml:space="preserve">50.7552070617676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.1056861877441</t>
+    <t xml:space="preserve">50.7552032470703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.1056823730469</t>
   </si>
   <si>
     <t xml:space="preserve">50.0592918395996</t>
@@ -329,10 +329,10 @@
     <t xml:space="preserve">50.987174987793</t>
   </si>
   <si>
-    <t xml:space="preserve">48.389102935791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.1107368469238</t>
+    <t xml:space="preserve">48.3891067504883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.1107330322266</t>
   </si>
   <si>
     <t xml:space="preserve">49.3633804321289</t>
@@ -344,7 +344,7 @@
     <t xml:space="preserve">51.4975090026855</t>
   </si>
   <si>
-    <t xml:space="preserve">50.9407806396484</t>
+    <t xml:space="preserve">50.9407844543457</t>
   </si>
   <si>
     <t xml:space="preserve">50.4304428100586</t>
@@ -356,10 +356,10 @@
     <t xml:space="preserve">44.7332420349121</t>
   </si>
   <si>
-    <t xml:space="preserve">45.3734817504883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.0023307800293</t>
+    <t xml:space="preserve">45.3734855651855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.002326965332</t>
   </si>
   <si>
     <t xml:space="preserve">44.7518005371094</t>
@@ -380,28 +380,28 @@
     <t xml:space="preserve">42.6826248168945</t>
   </si>
   <si>
-    <t xml:space="preserve">43.749683380127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.0858345031738</t>
+    <t xml:space="preserve">43.7496871948242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.0858383178711</t>
   </si>
   <si>
     <t xml:space="preserve">44.8260307312012</t>
   </si>
   <si>
-    <t xml:space="preserve">45.354923248291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.1971855163574</t>
+    <t xml:space="preserve">45.3549270629883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.1971817016602</t>
   </si>
   <si>
     <t xml:space="preserve">44.1486778259277</t>
   </si>
   <si>
-    <t xml:space="preserve">44.0187759399414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.6290626525879</t>
+    <t xml:space="preserve">44.0187721252441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.6290588378906</t>
   </si>
   <si>
     <t xml:space="preserve">44.3713684082031</t>
@@ -422,7 +422,7 @@
     <t xml:space="preserve">48.7138633728027</t>
   </si>
   <si>
-    <t xml:space="preserve">49.0386199951172</t>
+    <t xml:space="preserve">49.0386161804199</t>
   </si>
   <si>
     <t xml:space="preserve">48.76025390625</t>
@@ -443,13 +443,13 @@
     <t xml:space="preserve">48.8994369506836</t>
   </si>
   <si>
-    <t xml:space="preserve">49.3169822692871</t>
+    <t xml:space="preserve">49.3169860839844</t>
   </si>
   <si>
     <t xml:space="preserve">48.8530426025391</t>
   </si>
   <si>
-    <t xml:space="preserve">48.6674652099609</t>
+    <t xml:space="preserve">48.6674690246582</t>
   </si>
   <si>
     <t xml:space="preserve">49.1314086914062</t>
@@ -458,10 +458,10 @@
     <t xml:space="preserve">51.1727485656738</t>
   </si>
   <si>
-    <t xml:space="preserve">51.0335693359375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.1263580322266</t>
+    <t xml:space="preserve">51.0335655212402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.1263542175293</t>
   </si>
   <si>
     <t xml:space="preserve">50.4768409729004</t>
@@ -473,7 +473,7 @@
     <t xml:space="preserve">49.8737144470215</t>
   </si>
   <si>
-    <t xml:space="preserve">49.4097747802734</t>
+    <t xml:space="preserve">49.4097709655762</t>
   </si>
   <si>
     <t xml:space="preserve">49.7809257507324</t>
@@ -482,19 +482,19 @@
     <t xml:space="preserve">50.7088088989258</t>
   </si>
   <si>
-    <t xml:space="preserve">50.8479881286621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.3376579284668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.5489540100098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.600399017334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.7425193786621</t>
+    <t xml:space="preserve">50.8479919433594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.3376541137695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.548957824707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.6004028320312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.7425231933594</t>
   </si>
   <si>
     <t xml:space="preserve">43.9352607727051</t>
@@ -509,7 +509,7 @@
     <t xml:space="preserve">44.4084815979004</t>
   </si>
   <si>
-    <t xml:space="preserve">44.3899230957031</t>
+    <t xml:space="preserve">44.3899269104004</t>
   </si>
   <si>
     <t xml:space="preserve">43.2579078674316</t>
@@ -518,7 +518,7 @@
     <t xml:space="preserve">43.5641098022461</t>
   </si>
   <si>
-    <t xml:space="preserve">43.4434814453125</t>
+    <t xml:space="preserve">43.4434852600098</t>
   </si>
   <si>
     <t xml:space="preserve">43.016658782959</t>
@@ -527,10 +527,10 @@
     <t xml:space="preserve">44.2043495178223</t>
   </si>
   <si>
-    <t xml:space="preserve">44.4270401000977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.6497344970703</t>
+    <t xml:space="preserve">44.4270439147949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.649730682373</t>
   </si>
   <si>
     <t xml:space="preserve">44.3156929016113</t>
@@ -539,10 +539,10 @@
     <t xml:space="preserve">45.0951156616211</t>
   </si>
   <si>
-    <t xml:space="preserve">45.6611289978027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.5569458007812</t>
+    <t xml:space="preserve">45.6611251831055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.556941986084</t>
   </si>
   <si>
     <t xml:space="preserve">45.2528610229492</t>
@@ -554,16 +554,16 @@
     <t xml:space="preserve">46.9508819580078</t>
   </si>
   <si>
-    <t xml:space="preserve">46.6261253356934</t>
+    <t xml:space="preserve">46.6261215209961</t>
   </si>
   <si>
     <t xml:space="preserve">46.9044876098633</t>
   </si>
   <si>
-    <t xml:space="preserve">47.9251594543457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.1828536987305</t>
+    <t xml:space="preserve">47.925163269043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.1828498840332</t>
   </si>
   <si>
     <t xml:space="preserve">47.1364593505859</t>
@@ -575,7 +575,7 @@
     <t xml:space="preserve">48.8066482543945</t>
   </si>
   <si>
-    <t xml:space="preserve">49.8273239135742</t>
+    <t xml:space="preserve">49.827320098877</t>
   </si>
   <si>
     <t xml:space="preserve">49.4561653137207</t>
@@ -584,7 +584,7 @@
     <t xml:space="preserve">47.7859802246094</t>
   </si>
   <si>
-    <t xml:space="preserve">46.6725158691406</t>
+    <t xml:space="preserve">46.6725196838379</t>
   </si>
   <si>
     <t xml:space="preserve">45.9673309326172</t>
@@ -602,13 +602,13 @@
     <t xml:space="preserve">46.2364158630371</t>
   </si>
   <si>
-    <t xml:space="preserve">45.8281440734863</t>
+    <t xml:space="preserve">45.8281402587891</t>
   </si>
   <si>
     <t xml:space="preserve">46.3013648986816</t>
   </si>
   <si>
-    <t xml:space="preserve">46.858097076416</t>
+    <t xml:space="preserve">46.8580932617188</t>
   </si>
   <si>
     <t xml:space="preserve">47.3220367431641</t>
@@ -617,16 +617,16 @@
     <t xml:space="preserve">48.6210708618164</t>
   </si>
   <si>
-    <t xml:space="preserve">49.224193572998</t>
+    <t xml:space="preserve">49.2241973876953</t>
   </si>
   <si>
     <t xml:space="preserve">51.079963684082</t>
   </si>
   <si>
-    <t xml:space="preserve">52.4253959655762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53.8172187805176</t>
+    <t xml:space="preserve">52.4253921508789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53.8172149658203</t>
   </si>
   <si>
     <t xml:space="preserve">54.5595245361328</t>
@@ -635,13 +635,13 @@
     <t xml:space="preserve">54.9306793212891</t>
   </si>
   <si>
-    <t xml:space="preserve">54.2347640991211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.7193756103516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.5801963806152</t>
+    <t xml:space="preserve">54.2347602844238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.7193794250488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.5802001953125</t>
   </si>
   <si>
     <t xml:space="preserve">55.8585624694824</t>
@@ -650,28 +650,28 @@
     <t xml:space="preserve">56.2761077880859</t>
   </si>
   <si>
-    <t xml:space="preserve">55.9977416992188</t>
+    <t xml:space="preserve">55.997745513916</t>
   </si>
   <si>
     <t xml:space="preserve">56.0905303955078</t>
   </si>
   <si>
-    <t xml:space="preserve">56.2297134399414</t>
+    <t xml:space="preserve">56.2297096252441</t>
   </si>
   <si>
     <t xml:space="preserve">56.8792304992676</t>
   </si>
   <si>
-    <t xml:space="preserve">56.9720191955566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.3431701660156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58.0854797363281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.528751373291</t>
+    <t xml:space="preserve">56.9720230102539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.3431739807129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58.0854759216309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.5287475585938</t>
   </si>
   <si>
     <t xml:space="preserve">57.0648078918457</t>
@@ -692,25 +692,25 @@
     <t xml:space="preserve">60.8691253662109</t>
   </si>
   <si>
-    <t xml:space="preserve">61.8434066772461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.7970123291016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60.8227386474609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.0083122253418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.0032577514648</t>
+    <t xml:space="preserve">61.8434104919434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.7970085144043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60.8227424621582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.0083084106445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.0032653808594</t>
   </si>
   <si>
     <t xml:space="preserve">62.6321067810059</t>
   </si>
   <si>
-    <t xml:space="preserve">62.4001350402832</t>
+    <t xml:space="preserve">62.4001388549805</t>
   </si>
   <si>
     <t xml:space="preserve">62.2145614624023</t>
@@ -719,13 +719,13 @@
     <t xml:space="preserve">62.1681632995605</t>
   </si>
   <si>
-    <t xml:space="preserve">61.9361953735352</t>
+    <t xml:space="preserve">61.9361915588379</t>
   </si>
   <si>
     <t xml:space="preserve">61.982593536377</t>
   </si>
   <si>
-    <t xml:space="preserve">62.8176803588867</t>
+    <t xml:space="preserve">62.8176765441895</t>
   </si>
   <si>
     <t xml:space="preserve">62.0753784179688</t>
@@ -737,13 +737,13 @@
     <t xml:space="preserve">60.4515838623047</t>
   </si>
   <si>
-    <t xml:space="preserve">60.1732177734375</t>
+    <t xml:space="preserve">60.1732139587402</t>
   </si>
   <si>
     <t xml:space="preserve">60.9619102478027</t>
   </si>
   <si>
-    <t xml:space="preserve">61.4258575439453</t>
+    <t xml:space="preserve">61.425853729248</t>
   </si>
   <si>
     <t xml:space="preserve">61.5186462402344</t>
@@ -755,7 +755,7 @@
     <t xml:space="preserve">61.6114387512207</t>
   </si>
   <si>
-    <t xml:space="preserve">60.9155235290527</t>
+    <t xml:space="preserve">60.91552734375</t>
   </si>
   <si>
     <t xml:space="preserve">60.2660026550293</t>
@@ -767,16 +767,16 @@
     <t xml:space="preserve">61.8897933959961</t>
   </si>
   <si>
-    <t xml:space="preserve">62.121768951416</t>
+    <t xml:space="preserve">62.1217727661133</t>
   </si>
   <si>
     <t xml:space="preserve">62.4465293884277</t>
   </si>
   <si>
-    <t xml:space="preserve">62.956859588623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.1888389587402</t>
+    <t xml:space="preserve">62.9568634033203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.188835144043</t>
   </si>
   <si>
     <t xml:space="preserve">64.0239334106445</t>
@@ -788,19 +788,19 @@
     <t xml:space="preserve">64.4878768920898</t>
   </si>
   <si>
-    <t xml:space="preserve">65.8796997070312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66.2972412109375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66.0188827514648</t>
+    <t xml:space="preserve">65.8796920776367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66.297248840332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66.0188751220703</t>
   </si>
   <si>
     <t xml:space="preserve">66.9931564331055</t>
   </si>
   <si>
-    <t xml:space="preserve">68.1066131591797</t>
+    <t xml:space="preserve">68.1066207885742</t>
   </si>
   <si>
     <t xml:space="preserve">67.4107055664062</t>
@@ -824,22 +824,22 @@
     <t xml:space="preserve">67.8746490478516</t>
   </si>
   <si>
-    <t xml:space="preserve">68.1530075073242</t>
+    <t xml:space="preserve">68.1530151367188</t>
   </si>
   <si>
     <t xml:space="preserve">65.3693618774414</t>
   </si>
   <si>
-    <t xml:space="preserve">65.1837844848633</t>
+    <t xml:space="preserve">65.1837768554688</t>
   </si>
   <si>
     <t xml:space="preserve">64.3950805664062</t>
   </si>
   <si>
-    <t xml:space="preserve">63.7919578552246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.1424446105957</t>
+    <t xml:space="preserve">63.7919616699219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.142448425293</t>
   </si>
   <si>
     <t xml:space="preserve">63.3744163513184</t>
@@ -848,7 +848,7 @@
     <t xml:space="preserve">62.3537368774414</t>
   </si>
   <si>
-    <t xml:space="preserve">62.5393142700195</t>
+    <t xml:space="preserve">62.5393180847168</t>
   </si>
   <si>
     <t xml:space="preserve">64.1167144775391</t>
@@ -863,16 +863,16 @@
     <t xml:space="preserve">65.8332977294922</t>
   </si>
   <si>
-    <t xml:space="preserve">66.1116714477539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66.4364242553711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59.1525497436523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58.6422080993652</t>
+    <t xml:space="preserve">66.1116638183594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66.4364318847656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59.1525459289551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58.6422119140625</t>
   </si>
   <si>
     <t xml:space="preserve">57.5751457214355</t>
